--- a/NatmiData/natmiOut_TPM/YoungD7/LR-pairs_lrc2p/Il17c-Il17ra.xlsx
+++ b/NatmiData/natmiOut_TPM/YoungD7/LR-pairs_lrc2p/Il17c-Il17ra.xlsx
@@ -531,22 +531,22 @@
         <v>20</v>
       </c>
       <c r="E2">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F2">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="G2">
-        <v>1.784813666666667</v>
+        <v>0.643452</v>
       </c>
       <c r="H2">
-        <v>5.354441</v>
+        <v>1.930356</v>
       </c>
       <c r="I2">
-        <v>0.3928052716376136</v>
+        <v>0.2431136893481813</v>
       </c>
       <c r="J2">
-        <v>0.3928052716376136</v>
+        <v>0.2431136893481813</v>
       </c>
       <c r="K2">
         <v>3</v>
@@ -555,28 +555,28 @@
         <v>1</v>
       </c>
       <c r="M2">
-        <v>17.37362766666667</v>
+        <v>1.309671333333333</v>
       </c>
       <c r="N2">
-        <v>52.12088300000001</v>
+        <v>3.929014</v>
       </c>
       <c r="O2">
-        <v>0.4119962501387954</v>
+        <v>0.05806924226264097</v>
       </c>
       <c r="P2">
-        <v>0.4119962501387954</v>
+        <v>0.05806924226264098</v>
       </c>
       <c r="Q2">
-        <v>31.00868809904478</v>
+        <v>0.8427106387760001</v>
       </c>
       <c r="R2">
-        <v>279.078192891403</v>
+        <v>7.584395748984</v>
       </c>
       <c r="S2">
-        <v>0.1618342989494477</v>
+        <v>0.01411742772412398</v>
       </c>
       <c r="T2">
-        <v>0.1618342989494477</v>
+        <v>0.01411742772412398</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -593,22 +593,22 @@
         <v>21</v>
       </c>
       <c r="E3">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F3">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="G3">
-        <v>1.784813666666667</v>
+        <v>0.643452</v>
       </c>
       <c r="H3">
-        <v>5.354441</v>
+        <v>1.930356</v>
       </c>
       <c r="I3">
-        <v>0.3928052716376136</v>
+        <v>0.2431136893481813</v>
       </c>
       <c r="J3">
-        <v>0.3928052716376136</v>
+        <v>0.2431136893481813</v>
       </c>
       <c r="K3">
         <v>3</v>
@@ -623,22 +623,22 @@
         <v>21.956733</v>
       </c>
       <c r="O3">
-        <v>0.1735598313117363</v>
+        <v>0.3245116581089107</v>
       </c>
       <c r="P3">
-        <v>0.1735598313117363</v>
+        <v>0.3245116581089107</v>
       </c>
       <c r="Q3">
-        <v>13.062892377917</v>
+        <v>4.709367920772</v>
       </c>
       <c r="R3">
-        <v>117.566031401253</v>
+        <v>42.384311286948</v>
       </c>
       <c r="S3">
-        <v>0.06817521668378496</v>
+        <v>0.07889322643935293</v>
       </c>
       <c r="T3">
-        <v>0.06817521668378496</v>
+        <v>0.07889322643935293</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -655,22 +655,22 @@
         <v>22</v>
       </c>
       <c r="E4">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F4">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="G4">
-        <v>1.784813666666667</v>
+        <v>0.643452</v>
       </c>
       <c r="H4">
-        <v>5.354441</v>
+        <v>1.930356</v>
       </c>
       <c r="I4">
-        <v>0.3928052716376136</v>
+        <v>0.2431136893481813</v>
       </c>
       <c r="J4">
-        <v>0.3928052716376136</v>
+        <v>0.2431136893481813</v>
       </c>
       <c r="K4">
         <v>3</v>
@@ -679,28 +679,28 @@
         <v>1</v>
       </c>
       <c r="M4">
-        <v>3.631828666666667</v>
+        <v>4.657910333333334</v>
       </c>
       <c r="N4">
-        <v>10.895486</v>
+        <v>13.973731</v>
       </c>
       <c r="O4">
-        <v>0.08612477604110703</v>
+        <v>0.2065261082683789</v>
       </c>
       <c r="P4">
-        <v>0.08612477604110705</v>
+        <v>0.2065261082683789</v>
       </c>
       <c r="Q4">
-        <v>6.482137439258445</v>
+        <v>2.997141719804</v>
       </c>
       <c r="R4">
-        <v>58.33923695332599</v>
+        <v>26.974275478236</v>
       </c>
       <c r="S4">
-        <v>0.03383026604755569</v>
+        <v>0.05020932412784751</v>
       </c>
       <c r="T4">
-        <v>0.03383026604755569</v>
+        <v>0.05020932412784751</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -717,22 +717,22 @@
         <v>23</v>
       </c>
       <c r="E5">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F5">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="G5">
-        <v>1.784813666666667</v>
+        <v>0.643452</v>
       </c>
       <c r="H5">
-        <v>5.354441</v>
+        <v>1.930356</v>
       </c>
       <c r="I5">
-        <v>0.3928052716376136</v>
+        <v>0.2431136893481813</v>
       </c>
       <c r="J5">
-        <v>0.3928052716376136</v>
+        <v>0.2431136893481813</v>
       </c>
       <c r="K5">
         <v>3</v>
@@ -741,28 +741,28 @@
         <v>1</v>
       </c>
       <c r="M5">
-        <v>13.84501566666667</v>
+        <v>9.267122333333333</v>
       </c>
       <c r="N5">
-        <v>41.535047</v>
+        <v>27.801367</v>
       </c>
       <c r="O5">
-        <v>0.3283191425083613</v>
+        <v>0.4108929913600695</v>
       </c>
       <c r="P5">
-        <v>0.3283191425083613</v>
+        <v>0.4108929913600695</v>
       </c>
       <c r="Q5">
-        <v>24.71077317708077</v>
+        <v>5.962948399628</v>
       </c>
       <c r="R5">
-        <v>222.396958593727</v>
+        <v>53.666535596652</v>
       </c>
       <c r="S5">
-        <v>0.1289654899568252</v>
+        <v>0.09989371105685686</v>
       </c>
       <c r="T5">
-        <v>0.1289654899568252</v>
+        <v>0.09989371105685686</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -791,10 +791,10 @@
         <v>1.735072</v>
       </c>
       <c r="I6">
-        <v>0.1272860095518501</v>
+        <v>0.2185191514957488</v>
       </c>
       <c r="J6">
-        <v>0.1272860095518501</v>
+        <v>0.2185191514957488</v>
       </c>
       <c r="K6">
         <v>3</v>
@@ -803,28 +803,28 @@
         <v>1</v>
       </c>
       <c r="M6">
-        <v>17.37362766666667</v>
+        <v>1.309671333333333</v>
       </c>
       <c r="N6">
-        <v>52.12088300000001</v>
+        <v>3.929014</v>
       </c>
       <c r="O6">
-        <v>0.4119962501387954</v>
+        <v>0.05806924226264097</v>
       </c>
       <c r="P6">
-        <v>0.4119962501387954</v>
+        <v>0.05806924226264098</v>
       </c>
       <c r="Q6">
-        <v>10.04816496761956</v>
+        <v>0.7574580198897779</v>
       </c>
       <c r="R6">
-        <v>90.43348470857602</v>
+        <v>6.817122179008001</v>
       </c>
       <c r="S6">
-        <v>0.05244135863049312</v>
+        <v>0.01268924154723338</v>
       </c>
       <c r="T6">
-        <v>0.05244135863049312</v>
+        <v>0.01268924154723338</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -853,10 +853,10 @@
         <v>1.735072</v>
       </c>
       <c r="I7">
-        <v>0.1272860095518501</v>
+        <v>0.2185191514957488</v>
       </c>
       <c r="J7">
-        <v>0.1272860095518501</v>
+        <v>0.2185191514957488</v>
       </c>
       <c r="K7">
         <v>3</v>
@@ -871,10 +871,10 @@
         <v>21.956733</v>
       </c>
       <c r="O7">
-        <v>0.1735598313117363</v>
+        <v>0.3245116581089107</v>
       </c>
       <c r="P7">
-        <v>0.1735598313117363</v>
+        <v>0.3245116581089107</v>
       </c>
       <c r="Q7">
         <v>4.232945848864</v>
@@ -883,10 +883,10 @@
         <v>38.096512639776</v>
       </c>
       <c r="S7">
-        <v>0.02209173834616315</v>
+        <v>0.07091201218043769</v>
       </c>
       <c r="T7">
-        <v>0.02209173834616315</v>
+        <v>0.0709120121804377</v>
       </c>
     </row>
     <row r="8" spans="1:20">
@@ -915,10 +915,10 @@
         <v>1.735072</v>
       </c>
       <c r="I8">
-        <v>0.1272860095518501</v>
+        <v>0.2185191514957488</v>
       </c>
       <c r="J8">
-        <v>0.1272860095518501</v>
+        <v>0.2185191514957488</v>
       </c>
       <c r="K8">
         <v>3</v>
@@ -927,28 +927,28 @@
         <v>1</v>
       </c>
       <c r="M8">
-        <v>3.631828666666667</v>
+        <v>4.657910333333334</v>
       </c>
       <c r="N8">
-        <v>10.895486</v>
+        <v>13.973731</v>
       </c>
       <c r="O8">
-        <v>0.08612477604110703</v>
+        <v>0.2065261082683789</v>
       </c>
       <c r="P8">
-        <v>0.08612477604110705</v>
+        <v>0.2065261082683789</v>
       </c>
       <c r="Q8">
-        <v>2.100494742776889</v>
+        <v>2.693936599292445</v>
       </c>
       <c r="R8">
-        <v>18.904452684992</v>
+        <v>24.245429393632</v>
       </c>
       <c r="S8">
-        <v>0.0109624790658193</v>
+        <v>0.04512990994052529</v>
       </c>
       <c r="T8">
-        <v>0.0109624790658193</v>
+        <v>0.0451299099405253</v>
       </c>
     </row>
     <row r="9" spans="1:20">
@@ -977,10 +977,10 @@
         <v>1.735072</v>
       </c>
       <c r="I9">
-        <v>0.1272860095518501</v>
+        <v>0.2185191514957488</v>
       </c>
       <c r="J9">
-        <v>0.1272860095518501</v>
+        <v>0.2185191514957488</v>
       </c>
       <c r="K9">
         <v>3</v>
@@ -989,28 +989,28 @@
         <v>1</v>
       </c>
       <c r="M9">
-        <v>13.84501566666667</v>
+        <v>9.267122333333333</v>
       </c>
       <c r="N9">
-        <v>41.535047</v>
+        <v>27.801367</v>
       </c>
       <c r="O9">
-        <v>0.3283191425083613</v>
+        <v>0.4108929913600695</v>
       </c>
       <c r="P9">
-        <v>0.3283191425083613</v>
+        <v>0.4108929913600695</v>
       </c>
       <c r="Q9">
-        <v>8.007366340931556</v>
+        <v>5.359708160380444</v>
       </c>
       <c r="R9">
-        <v>72.066297068384</v>
+        <v>48.237373443424</v>
       </c>
       <c r="S9">
-        <v>0.0417904335093745</v>
+        <v>0.08978798782755242</v>
       </c>
       <c r="T9">
-        <v>0.0417904335093745</v>
+        <v>0.08978798782755242</v>
       </c>
     </row>
     <row r="10" spans="1:20">
@@ -1033,16 +1033,16 @@
         <v>1</v>
       </c>
       <c r="G10">
-        <v>0.4683136666666667</v>
+        <v>0.2588786666666666</v>
       </c>
       <c r="H10">
-        <v>1.404941</v>
+        <v>0.776636</v>
       </c>
       <c r="I10">
-        <v>0.103067384838085</v>
+        <v>0.09781141055878506</v>
       </c>
       <c r="J10">
-        <v>0.103067384838085</v>
+        <v>0.09781141055878506</v>
       </c>
       <c r="K10">
         <v>3</v>
@@ -1051,28 +1051,28 @@
         <v>1</v>
       </c>
       <c r="M10">
-        <v>17.37362766666667</v>
+        <v>1.309671333333333</v>
       </c>
       <c r="N10">
-        <v>52.12088300000001</v>
+        <v>3.929014</v>
       </c>
       <c r="O10">
-        <v>0.4119962501387954</v>
+        <v>0.05806924226264097</v>
       </c>
       <c r="P10">
-        <v>0.4119962501387954</v>
+        <v>0.05806924226264098</v>
       </c>
       <c r="Q10">
-        <v>8.136307275878112</v>
+        <v>0.3390459685448889</v>
       </c>
       <c r="R10">
-        <v>73.22676548290301</v>
+        <v>3.051413716904</v>
       </c>
       <c r="S10">
-        <v>0.04246337606490314</v>
+        <v>0.005679834495788729</v>
       </c>
       <c r="T10">
-        <v>0.04246337606490314</v>
+        <v>0.005679834495788729</v>
       </c>
     </row>
     <row r="11" spans="1:20">
@@ -1095,16 +1095,16 @@
         <v>1</v>
       </c>
       <c r="G11">
-        <v>0.4683136666666667</v>
+        <v>0.2588786666666666</v>
       </c>
       <c r="H11">
-        <v>1.404941</v>
+        <v>0.776636</v>
       </c>
       <c r="I11">
-        <v>0.103067384838085</v>
+        <v>0.09781141055878506</v>
       </c>
       <c r="J11">
-        <v>0.103067384838085</v>
+        <v>0.09781141055878506</v>
       </c>
       <c r="K11">
         <v>3</v>
@@ -1119,22 +1119,22 @@
         <v>21.956733</v>
       </c>
       <c r="O11">
-        <v>0.1735598313117363</v>
+        <v>0.3245116581089107</v>
       </c>
       <c r="P11">
-        <v>0.1735598313117363</v>
+        <v>0.3245116581089107</v>
       </c>
       <c r="Q11">
-        <v>3.427546046417</v>
+        <v>1.894709921132</v>
       </c>
       <c r="R11">
-        <v>30.847914417753</v>
+        <v>17.052389290188</v>
       </c>
       <c r="S11">
-        <v>0.01788835792623983</v>
+        <v>0.03174094302240275</v>
       </c>
       <c r="T11">
-        <v>0.01788835792623983</v>
+        <v>0.03174094302240276</v>
       </c>
     </row>
     <row r="12" spans="1:20">
@@ -1157,16 +1157,16 @@
         <v>1</v>
       </c>
       <c r="G12">
-        <v>0.4683136666666667</v>
+        <v>0.2588786666666666</v>
       </c>
       <c r="H12">
-        <v>1.404941</v>
+        <v>0.776636</v>
       </c>
       <c r="I12">
-        <v>0.103067384838085</v>
+        <v>0.09781141055878506</v>
       </c>
       <c r="J12">
-        <v>0.103067384838085</v>
+        <v>0.09781141055878506</v>
       </c>
       <c r="K12">
         <v>3</v>
@@ -1175,28 +1175,28 @@
         <v>1</v>
       </c>
       <c r="M12">
-        <v>3.631828666666667</v>
+        <v>4.657910333333334</v>
       </c>
       <c r="N12">
-        <v>10.895486</v>
+        <v>13.973731</v>
       </c>
       <c r="O12">
-        <v>0.08612477604110703</v>
+        <v>0.2065261082683789</v>
       </c>
       <c r="P12">
-        <v>0.08612477604110705</v>
+        <v>0.2065261082683789</v>
       </c>
       <c r="Q12">
-        <v>1.700834999591778</v>
+        <v>1.205833616546222</v>
       </c>
       <c r="R12">
-        <v>15.307514996326</v>
+        <v>10.852502548916</v>
       </c>
       <c r="S12">
-        <v>0.008876655436322659</v>
+        <v>0.0202006099669465</v>
       </c>
       <c r="T12">
-        <v>0.008876655436322659</v>
+        <v>0.0202006099669465</v>
       </c>
     </row>
     <row r="13" spans="1:20">
@@ -1219,16 +1219,16 @@
         <v>1</v>
       </c>
       <c r="G13">
-        <v>0.4683136666666667</v>
+        <v>0.2588786666666666</v>
       </c>
       <c r="H13">
-        <v>1.404941</v>
+        <v>0.776636</v>
       </c>
       <c r="I13">
-        <v>0.103067384838085</v>
+        <v>0.09781141055878506</v>
       </c>
       <c r="J13">
-        <v>0.103067384838085</v>
+        <v>0.09781141055878506</v>
       </c>
       <c r="K13">
         <v>3</v>
@@ -1237,28 +1237,28 @@
         <v>1</v>
       </c>
       <c r="M13">
-        <v>13.84501566666667</v>
+        <v>9.267122333333333</v>
       </c>
       <c r="N13">
-        <v>41.535047</v>
+        <v>27.801367</v>
       </c>
       <c r="O13">
-        <v>0.3283191425083613</v>
+        <v>0.4108929913600695</v>
       </c>
       <c r="P13">
-        <v>0.3283191425083613</v>
+        <v>0.4108929913600695</v>
       </c>
       <c r="Q13">
-        <v>6.483810051914111</v>
+        <v>2.399060273490222</v>
       </c>
       <c r="R13">
-        <v>58.354290467227</v>
+        <v>21.591542461412</v>
       </c>
       <c r="S13">
-        <v>0.03383899541061933</v>
+        <v>0.04019002307364708</v>
       </c>
       <c r="T13">
-        <v>0.03383899541061933</v>
+        <v>0.04019002307364708</v>
       </c>
     </row>
     <row r="14" spans="1:20">
@@ -1281,16 +1281,16 @@
         <v>1</v>
       </c>
       <c r="G14">
-        <v>1.712277333333333</v>
+        <v>1.166024333333333</v>
       </c>
       <c r="H14">
-        <v>5.136832</v>
+        <v>3.498073</v>
       </c>
       <c r="I14">
-        <v>0.3768413339724513</v>
+        <v>0.4405557485972849</v>
       </c>
       <c r="J14">
-        <v>0.3768413339724513</v>
+        <v>0.4405557485972849</v>
       </c>
       <c r="K14">
         <v>3</v>
@@ -1299,28 +1299,28 @@
         <v>1</v>
       </c>
       <c r="M14">
-        <v>17.37362766666667</v>
+        <v>1.309671333333333</v>
       </c>
       <c r="N14">
-        <v>52.12088300000001</v>
+        <v>3.929014</v>
       </c>
       <c r="O14">
-        <v>0.4119962501387954</v>
+        <v>0.05806924226264097</v>
       </c>
       <c r="P14">
-        <v>0.4119962501387954</v>
+        <v>0.05806924226264098</v>
       </c>
       <c r="Q14">
-        <v>29.74846885140623</v>
+        <v>1.527108643335778</v>
       </c>
       <c r="R14">
-        <v>267.736219662656</v>
+        <v>13.743977790022</v>
       </c>
       <c r="S14">
-        <v>0.1552572164939514</v>
+        <v>0.02558273849549489</v>
       </c>
       <c r="T14">
-        <v>0.1552572164939514</v>
+        <v>0.02558273849549489</v>
       </c>
     </row>
     <row r="15" spans="1:20">
@@ -1343,16 +1343,16 @@
         <v>1</v>
       </c>
       <c r="G15">
-        <v>1.712277333333333</v>
+        <v>1.166024333333333</v>
       </c>
       <c r="H15">
-        <v>5.136832</v>
+        <v>3.498073</v>
       </c>
       <c r="I15">
-        <v>0.3768413339724513</v>
+        <v>0.4405557485972849</v>
       </c>
       <c r="J15">
-        <v>0.3768413339724513</v>
+        <v>0.4405557485972849</v>
       </c>
       <c r="K15">
         <v>3</v>
@@ -1367,22 +1367,22 @@
         <v>21.956733</v>
       </c>
       <c r="O15">
-        <v>0.1735598313117363</v>
+        <v>0.3245116581089107</v>
       </c>
       <c r="P15">
-        <v>0.1735598313117363</v>
+        <v>0.3245116581089107</v>
       </c>
       <c r="Q15">
-        <v>12.532005409984</v>
+        <v>8.534028319500999</v>
       </c>
       <c r="R15">
-        <v>112.788048689856</v>
+        <v>76.806254875509</v>
       </c>
       <c r="S15">
-        <v>0.06540451835554832</v>
+        <v>0.1429654764667173</v>
       </c>
       <c r="T15">
-        <v>0.06540451835554832</v>
+        <v>0.1429654764667173</v>
       </c>
     </row>
     <row r="16" spans="1:20">
@@ -1405,16 +1405,16 @@
         <v>1</v>
       </c>
       <c r="G16">
-        <v>1.712277333333333</v>
+        <v>1.166024333333333</v>
       </c>
       <c r="H16">
-        <v>5.136832</v>
+        <v>3.498073</v>
       </c>
       <c r="I16">
-        <v>0.3768413339724513</v>
+        <v>0.4405557485972849</v>
       </c>
       <c r="J16">
-        <v>0.3768413339724513</v>
+        <v>0.4405557485972849</v>
       </c>
       <c r="K16">
         <v>3</v>
@@ -1423,28 +1423,28 @@
         <v>1</v>
       </c>
       <c r="M16">
-        <v>3.631828666666667</v>
+        <v>4.657910333333334</v>
       </c>
       <c r="N16">
-        <v>10.895486</v>
+        <v>13.973731</v>
       </c>
       <c r="O16">
-        <v>0.08612477604110703</v>
+        <v>0.2065261082683789</v>
       </c>
       <c r="P16">
-        <v>0.08612477604110705</v>
+        <v>0.2065261082683789</v>
       </c>
       <c r="Q16">
-        <v>6.218697904483556</v>
+        <v>5.431236791151445</v>
       </c>
       <c r="R16">
-        <v>55.968281140352</v>
+        <v>48.881131120363</v>
       </c>
       <c r="S16">
-        <v>0.03245537549140939</v>
+        <v>0.09098626423305957</v>
       </c>
       <c r="T16">
-        <v>0.03245537549140939</v>
+        <v>0.09098626423305957</v>
       </c>
     </row>
     <row r="17" spans="1:20">
@@ -1467,16 +1467,16 @@
         <v>1</v>
       </c>
       <c r="G17">
-        <v>1.712277333333333</v>
+        <v>1.166024333333333</v>
       </c>
       <c r="H17">
-        <v>5.136832</v>
+        <v>3.498073</v>
       </c>
       <c r="I17">
-        <v>0.3768413339724513</v>
+        <v>0.4405557485972849</v>
       </c>
       <c r="J17">
-        <v>0.3768413339724513</v>
+        <v>0.4405557485972849</v>
       </c>
       <c r="K17">
         <v>3</v>
@@ -1485,28 +1485,28 @@
         <v>1</v>
       </c>
       <c r="M17">
-        <v>13.84501566666667</v>
+        <v>9.267122333333333</v>
       </c>
       <c r="N17">
-        <v>41.535047</v>
+        <v>27.801367</v>
       </c>
       <c r="O17">
-        <v>0.3283191425083613</v>
+        <v>0.4108929913600695</v>
       </c>
       <c r="P17">
-        <v>0.3283191425083613</v>
+        <v>0.4108929913600695</v>
       </c>
       <c r="Q17">
-        <v>23.70650650567822</v>
+        <v>10.80569014064344</v>
       </c>
       <c r="R17">
-        <v>213.358558551104</v>
+        <v>97.25121126579099</v>
       </c>
       <c r="S17">
-        <v>0.1237242236315422</v>
+        <v>0.1810212694020131</v>
       </c>
       <c r="T17">
-        <v>0.1237242236315422</v>
+        <v>0.1810212694020131</v>
       </c>
     </row>
   </sheetData>
